--- a/状態遷移.xlsx
+++ b/状態遷移.xlsx
@@ -243,8 +243,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -254,29 +254,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,8 +271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,39 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,13 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -379,7 +327,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,175 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,21 +621,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +666,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,17 +693,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,7 +721,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,136 +730,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -37964,7 +37964,7 @@
   <dimension ref="A1:BF152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -38864,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -38913,7 +38913,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" s="1">
         <v>2</v>

--- a/状態遷移.xlsx
+++ b/状態遷移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="10500" activeTab="3"/>
+    <workbookView windowWidth="17628" windowHeight="10092" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,8 +243,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -265,7 +265,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,33 +287,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,9 +327,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +343,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +366,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -357,14 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,23 +395,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +422,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,91 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,49 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +613,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,6 +655,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,6 +675,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,47 +708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,7 +721,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,16 +730,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,91 +748,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,25 +829,37 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -37963,8 +37963,8 @@
   <sheetPr/>
   <dimension ref="A1:BF152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A23:$XFD23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A125" sqref="$A125:$XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -39512,7 +39512,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -39562,7 +39562,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
         <v>2</v>
